--- a/biology/Botanique/Forêt_de_Chevré/Forêt_de_Chevré.xlsx
+++ b/biology/Botanique/Forêt_de_Chevré/Forêt_de_Chevré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Chevr%C3%A9</t>
+          <t>Forêt_de_Chevré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Chevré est une forêt française située à l’est de Rennes dans les communes de La Bouëxière, Acigné, Châteaubourg, Marpiré, Servon-sur-Vilaine et Saint-Jean-sur-Vilaine dans le département d'Ille-et-Vilaine en Bretagne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Chevr%C3%A9</t>
+          <t>Forêt_de_Chevré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la forêt est associé au village de Chevré, ancien et important bourg castral situé à La Bouëxière, au nord-est de la forêt. 
-Selon un aveu de 1546, les habitants de Marpiré devaient fournir un garde forestier et un cheval aux seigneurs de Gazon en Pocé-les-Bois pour la garde des parties de la forêt de Chevré et de l'étang de Chevré qui leur appartenaient[4].
-2 096 hectares de la forêt du Pertre, ainsi qu'une superficie presque équivalente de la forêt de Chevré, furent mises en vente par les "Forges de Port-Brillet" en 1856[5].
-En 2002, dans le cadre de sa politique de préservation des espaces naturels, le conseil général d'Ille-et-Vilaine achète l'est de la forêt de Chevré. Ce massif est dénommé la forêt de la Corbière et s'étend sur 627 hectares[6].
+Selon un aveu de 1546, les habitants de Marpiré devaient fournir un garde forestier et un cheval aux seigneurs de Gazon en Pocé-les-Bois pour la garde des parties de la forêt de Chevré et de l'étang de Chevré qui leur appartenaient.
+2 096 hectares de la forêt du Pertre, ainsi qu'une superficie presque équivalente de la forêt de Chevré, furent mises en vente par les "Forges de Port-Brillet" en 1856.
+En 2002, dans le cadre de sa politique de préservation des espaces naturels, le conseil général d'Ille-et-Vilaine achète l'est de la forêt de Chevré. Ce massif est dénommé la forêt de la Corbière et s'étend sur 627 hectares.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Chevr%C3%A9</t>
+          <t>Forêt_de_Chevré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une partie de la forêt constitue un ensemble naturel protégé depuis le 6 mai 2014 au titre de Natura 2000 avec les forêts de Rennes, Liffré et de Haute-Sève (Saint-Aubin-du-Cormier), du fait de la présence importante de hêtraies et chênaies, bien conservées et riches en épiphytes[7].
-L'étang de la Pagerie est inventorié en ZNIEFF de niveau 1[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une partie de la forêt constitue un ensemble naturel protégé depuis le 6 mai 2014 au titre de Natura 2000 avec les forêts de Rennes, Liffré et de Haute-Sève (Saint-Aubin-du-Cormier), du fait de la présence importante de hêtraies et chênaies, bien conservées et riches en épiphytes.
+L'étang de la Pagerie est inventorié en ZNIEFF de niveau 1.
 </t>
         </is>
       </c>
